--- a/NEW HR/RAMA, RAQUEL.xlsx
+++ b/NEW HR/RAMA, RAQUEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,17 +674,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,9 +697,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,27 +892,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1130,27 +1133,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1213,25 +1216,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1243,25 +1246,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1574,10 +1577,10 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C78"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,8 +1610,8 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
@@ -1626,14 +1629,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1687,18 +1690,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1745,7 +1748,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1755,7 +1758,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>80</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3129,7 +3132,7 @@
       <c r="K76" s="21"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="63">
+      <c r="A77" s="52">
         <v>44927</v>
       </c>
       <c r="B77" s="21"/>
@@ -3169,15 +3172,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>44986</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -3185,23 +3192,29 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="42">
+        <v>45017</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="51"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45047</v>
+      </c>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
       <c r="D81" s="41"/>
@@ -3650,17 +3663,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3695,10 +3708,10 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,8 +3741,8 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
@@ -3747,14 +3760,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3808,18 +3821,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3876,7 +3889,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.208</v>
+        <v>146.208</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4436,7 +4449,9 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="50" t="s">
+        <v>75</v>
+      </c>
       <c r="B36" s="21"/>
       <c r="C36" s="14"/>
       <c r="D36" s="41"/>
@@ -4452,8 +4467,12 @@
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="42">
+        <v>45047</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="41"/>
       <c r="E37" s="10"/>
@@ -4462,10 +4481,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="41"/>
+      <c r="H37" s="41">
+        <v>1</v>
+      </c>
       <c r="I37" s="10"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="51">
+        <v>45044</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
@@ -5058,17 +5081,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -5147,12 +5170,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="48"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">

--- a/NEW HR/RAMA, RAQUEL.xlsx
+++ b/NEW HR/RAMA, RAQUEL.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1578,9 +1578,9 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1748,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1758,7 +1758,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3216,13 +3216,15 @@
         <v>45047</v>
       </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -3230,7 +3232,9 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="42">
+        <v>45078</v>
+      </c>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
       <c r="D82" s="41"/>
@@ -3243,7 +3247,7 @@
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="51"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>
@@ -3711,7 +3715,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3889,7 +3893,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>146.208</v>
+        <v>145.208</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4491,8 +4495,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="42">
+        <v>45078</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C38" s="14"/>
       <c r="D38" s="41"/>
       <c r="E38" s="10"/>
@@ -4501,10 +4509,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="41">
+        <v>1</v>
+      </c>
       <c r="I38" s="10"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="K38" s="51">
+        <v>45078</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>

--- a/NEW HR/RAMA, RAQUEL.xlsx
+++ b/NEW HR/RAMA, RAQUEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>6/22,23,26,27,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1583,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
@@ -3712,10 +3718,10 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +3889,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>57.69</v>
+        <v>51.69</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3893,7 +3899,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>145.208</v>
+        <v>143.208</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4520,7 +4526,9 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C39" s="14"/>
       <c r="D39" s="41"/>
       <c r="E39" s="10"/>
@@ -4529,14 +4537,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="41"/>
+      <c r="H39" s="41">
+        <v>1</v>
+      </c>
       <c r="I39" s="10"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="K39" s="51">
+        <v>45084</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C40" s="14"/>
       <c r="D40" s="41"/>
       <c r="E40" s="10"/>
@@ -4545,16 +4559,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="41">
+        <v>1</v>
+      </c>
       <c r="I40" s="10"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="K40" s="51">
+        <v>45084</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="42">
+        <v>45096</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="41"/>
+      <c r="D41" s="41">
+        <v>6</v>
+      </c>
       <c r="E41" s="10"/>
       <c r="F41" s="21"/>
       <c r="G41" s="14" t="str">
@@ -4564,7 +4588,9 @@
       <c r="H41" s="41"/>
       <c r="I41" s="10"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>

--- a/NEW HR/RAMA, RAQUEL.xlsx
+++ b/NEW HR/RAMA, RAQUEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C2B0A-A112-482A-9B31-6AA9C614D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,12 +279,15 @@
   </si>
   <si>
     <t>7/17-19/2023</t>
+  </si>
+  <si>
+    <t>8/2,3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -664,14 +666,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -681,9 +686,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,7 +1197,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1212,25 +1214,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K108" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1242,25 +1244,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1567,34 +1569,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A77" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1606,16 +1608,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1624,16 +1626,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1644,16 +1646,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1661,7 +1663,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1674,24 +1676,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1750,7 +1752,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1772,7 +1774,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1792,7 +1794,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1812,7 +1814,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1832,7 +1834,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1852,7 +1854,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="49"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1872,7 +1874,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1892,7 +1894,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1912,7 +1914,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1932,7 +1934,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1952,7 +1954,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1972,7 +1974,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="49"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1992,7 +1994,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>51</v>
@@ -2040,7 +2042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>53</v>
       </c>
@@ -2058,7 +2060,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -2078,7 +2080,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -2098,7 +2100,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -2118,7 +2120,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -2138,7 +2140,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -2158,7 +2160,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -2178,7 +2180,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43647</v>
       </c>
@@ -2198,7 +2200,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -2218,7 +2220,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43709</v>
       </c>
@@ -2238,7 +2240,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43739</v>
       </c>
@@ -2258,7 +2260,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43770</v>
       </c>
@@ -2278,7 +2280,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43800</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>60</v>
       </c>
@@ -2322,7 +2324,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -2342,7 +2344,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43862</v>
       </c>
@@ -2362,7 +2364,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43891</v>
       </c>
@@ -2382,7 +2384,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43922</v>
       </c>
@@ -2402,7 +2404,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43952</v>
       </c>
@@ -2422,7 +2424,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43983</v>
       </c>
@@ -2442,7 +2444,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44013</v>
       </c>
@@ -2462,7 +2464,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44044</v>
       </c>
@@ -2482,7 +2484,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44075</v>
       </c>
@@ -2502,7 +2504,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44105</v>
       </c>
@@ -2522,7 +2524,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44136</v>
       </c>
@@ -2542,7 +2544,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44166</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>67</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -2606,7 +2608,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -2626,7 +2628,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -2646,7 +2648,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -2666,7 +2668,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -2686,7 +2688,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -2706,7 +2708,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -2726,7 +2728,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -2746,7 +2748,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -2766,7 +2768,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -2786,7 +2788,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>71</v>
       </c>
@@ -2850,7 +2852,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -2870,7 +2872,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -2890,7 +2892,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -2910,7 +2912,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -2930,7 +2932,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -2950,7 +2952,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -2970,7 +2972,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -2990,7 +2992,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -3010,7 +3012,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="49"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -3030,7 +3032,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -3076,7 +3078,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
@@ -3100,7 +3102,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>75</v>
       </c>
@@ -3118,7 +3120,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44957</v>
       </c>
@@ -3138,7 +3140,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44985</v>
       </c>
@@ -3158,7 +3160,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45016</v>
       </c>
@@ -3178,7 +3180,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45046</v>
       </c>
@@ -3198,7 +3200,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="49"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45077</v>
       </c>
@@ -3218,7 +3220,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45107</v>
       </c>
@@ -3238,7 +3240,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="49"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45138</v>
       </c>
@@ -3258,7 +3260,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45169</v>
       </c>
@@ -3276,7 +3278,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45199</v>
       </c>
@@ -3294,7 +3296,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45230</v>
       </c>
@@ -3312,7 +3314,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45260</v>
       </c>
@@ -3330,7 +3332,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45291</v>
       </c>
@@ -3348,7 +3350,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45322</v>
       </c>
@@ -3366,7 +3368,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45351</v>
       </c>
@@ -3384,7 +3386,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45382</v>
       </c>
@@ -3402,7 +3404,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45412</v>
       </c>
@@ -3420,7 +3422,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45443</v>
       </c>
@@ -3438,7 +3440,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45473</v>
       </c>
@@ -3456,7 +3458,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45504</v>
       </c>
@@ -3474,7 +3476,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45535</v>
       </c>
@@ -3492,7 +3494,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45565</v>
       </c>
@@ -3510,7 +3512,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45596</v>
       </c>
@@ -3528,7 +3530,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45626</v>
       </c>
@@ -3546,7 +3548,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45657</v>
       </c>
@@ -3564,7 +3566,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3580,7 +3582,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3596,7 +3598,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3612,7 +3614,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3628,7 +3630,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3644,7 +3646,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3660,7 +3662,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3676,7 +3678,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41"/>
       <c r="B108" s="15"/>
       <c r="C108" s="42"/>
@@ -3694,23 +3696,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3733,34 +3735,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3772,16 +3774,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3790,16 +3792,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3810,16 +3812,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3827,7 +3829,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3840,24 +3842,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3911,12 +3913,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>138.208</v>
+        <v>136.208</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3938,7 +3940,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3960,7 +3962,7 @@
         <v>43118</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -3982,7 +3984,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43313</v>
       </c>
@@ -4004,7 +4006,7 @@
         <v>43329</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43344</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>46</v>
@@ -4046,7 +4048,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43374</v>
       </c>
@@ -4068,7 +4070,7 @@
         <v>43383</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>46</v>
@@ -4088,7 +4090,7 @@
         <v>43397</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43435</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>46</v>
@@ -4130,7 +4132,7 @@
         <v>43432</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>53</v>
       </c>
@@ -4148,7 +4150,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43466</v>
       </c>
@@ -4170,7 +4172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43525</v>
       </c>
@@ -4192,7 +4194,7 @@
         <v>43535</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43556</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43739</v>
       </c>
@@ -4236,7 +4238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43770</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>60</v>
       </c>
@@ -4276,7 +4278,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43862</v>
       </c>
@@ -4320,7 +4322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44075</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>67</v>
       </c>
@@ -4362,7 +4364,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44470</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>71</v>
       </c>
@@ -4402,7 +4404,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44774</v>
       </c>
@@ -4424,7 +4426,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44805</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44835</v>
       </c>
@@ -4470,7 +4472,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>75</v>
       </c>
@@ -4488,7 +4490,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45047</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45078</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4558,7 +4560,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>76</v>
@@ -4580,7 +4582,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45096</v>
       </c>
@@ -4604,7 +4606,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45108</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>79</v>
@@ -4650,7 +4652,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45139</v>
       </c>
@@ -4674,9 +4676,11 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
-      <c r="B45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
@@ -4685,12 +4689,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="39">
+        <v>2</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4706,7 +4714,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4722,7 +4730,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4738,7 +4746,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4754,7 +4762,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4770,7 +4778,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4786,7 +4794,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4802,7 +4810,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4818,7 +4826,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4834,7 +4842,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4850,7 +4858,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4866,7 +4874,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4882,7 +4890,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4898,7 +4906,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4914,7 +4922,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4930,7 +4938,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4946,7 +4954,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4962,7 +4970,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4978,7 +4986,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4994,7 +5002,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5010,7 +5018,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5026,7 +5034,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5042,7 +5050,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5058,7 +5066,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5074,7 +5082,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="15"/>
       <c r="C70" s="42"/>
@@ -5105,10 +5113,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5131,28 +5139,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5165,7 +5173,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5194,7 +5202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>58.69</v>
       </c>
@@ -5218,17 +5226,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5249,7 +5257,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5276,7 +5284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5302,7 +5310,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5328,7 +5336,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5354,7 +5362,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5380,7 +5388,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5406,7 +5414,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5432,7 +5440,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5458,7 +5466,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5478,7 +5486,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5498,7 +5506,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5518,7 +5526,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5539,7 +5547,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5560,7 +5568,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5581,7 +5589,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5602,7 +5610,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5623,7 +5631,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5644,7 +5652,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5665,7 +5673,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5686,7 +5694,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5707,7 +5715,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5728,7 +5736,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5770,7 +5778,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5791,7 +5799,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5812,7 +5820,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5833,7 +5841,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5854,7 +5862,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5875,7 +5883,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5917,7 +5925,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5938,7 +5946,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5947,7 +5955,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5956,7 +5964,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5965,7 +5973,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5974,7 +5982,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5983,7 +5991,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5992,7 +6000,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6001,7 +6009,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6010,7 +6018,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6019,7 +6027,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6028,7 +6036,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6037,7 +6045,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6046,7 +6054,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6055,7 +6063,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6064,7 +6072,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6073,7 +6081,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6082,7 +6090,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6091,7 +6099,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6100,7 +6108,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6109,7 +6117,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6118,7 +6126,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6127,7 +6135,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6136,7 +6144,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6145,7 +6153,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6154,7 +6162,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6163,7 +6171,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6172,7 +6180,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6181,7 +6189,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6190,7 +6198,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6199,7 +6207,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RAMA, RAQUEL.xlsx
+++ b/NEW HR/RAMA, RAQUEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>8/2,3/2023</t>
+  </si>
+  <si>
+    <t>8/8,10,11/2023</t>
+  </si>
+  <si>
+    <t>8/29-31/2023</t>
+  </si>
+  <si>
+    <t>9/6,7,/2023</t>
+  </si>
+  <si>
+    <t>9/11,14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -666,17 +678,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -686,6 +695,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,7 +1590,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,14 +1620,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1626,14 +1638,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1646,14 +1658,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1679,18 +1691,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1737,7 +1749,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1747,7 +1759,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3265,13 +3277,15 @@
         <v>45169</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -3696,17 +3710,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3744,7 +3758,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,14 +3788,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3792,14 +3806,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3812,14 +3826,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3845,18 +3859,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3913,7 +3927,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>136.208</v>
+        <v>124.208</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4700,7 +4714,9 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
@@ -4709,14 +4725,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H46" s="39"/>
+      <c r="H46" s="39">
+        <v>3</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
@@ -4725,14 +4747,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="39"/>
+      <c r="H47" s="39">
+        <v>1</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="49">
+        <v>45154</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
@@ -4741,14 +4769,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="39"/>
+      <c r="H48" s="39">
+        <v>3</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -4757,14 +4793,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="39">
+        <v>2</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
@@ -4773,10 +4815,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="39">
+        <v>3</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>

--- a/NEW HR/RAMA, RAQUEL.xlsx
+++ b/NEW HR/RAMA, RAQUEL.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>12/12-15/2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -726,17 +729,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,6 +746,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1668,14 +1671,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1686,14 +1689,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1706,14 +1709,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1739,18 +1742,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3786,17 +3789,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3834,7 +3837,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,14 +3867,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3882,14 +3885,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3902,14 +3905,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3935,18 +3938,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4003,7 +4006,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.207999999999998</v>
+        <v>78.207999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5218,7 +5221,9 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
@@ -5227,10 +5232,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H65" s="39"/>
+      <c r="H65" s="39">
+        <v>3</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
